--- a/5_Analysis/OUTPUT/meta/meta.xlsx
+++ b/5_Analysis/OUTPUT/meta/meta.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7A98AB-CD0D-4149-96A7-E476EC28EA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCB851C-420B-4B84-9084-84A29AD21FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>SE</t>
   </si>
@@ -98,17 +98,13 @@
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
-  <si>
-    <t>&lt;.01</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode=".00"/>
+    <numFmt numFmtId="176" formatCode=".00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -193,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -222,10 +218,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -545,7 +544,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -592,13 +591,9 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="7">
-        <v>0.84940000000000004</v>
-      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
@@ -623,7 +618,7 @@
       <c r="H3" s="11">
         <v>68.671199999999999</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="7">
@@ -650,10 +645,10 @@
       <c r="G4" s="5">
         <v>14</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="11">
         <v>144.5675</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J4" s="7">
@@ -680,10 +675,10 @@
       <c r="G5" s="5">
         <v>14</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="11">
         <v>81.960300000000004</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="7">
@@ -710,10 +705,10 @@
       <c r="G6" s="5">
         <v>14</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="11">
         <v>128.46719999999999</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J6" s="7">
@@ -740,10 +735,10 @@
       <c r="G7" s="5">
         <v>14</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="11">
         <v>141.95429999999999</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J7" s="7">
@@ -770,10 +765,10 @@
       <c r="G8" s="5">
         <v>14</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="11">
         <v>121.38760000000001</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="11">
         <v>0.1673</v>
       </c>
       <c r="J8" s="7">
@@ -790,8 +785,8 @@
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -812,16 +807,16 @@
         <v>-0.424517272353367</v>
       </c>
       <c r="G10" s="5">
-        <v>14</v>
-      </c>
-      <c r="H10" s="6">
-        <v>58.723399999999998</v>
-      </c>
-      <c r="I10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="11">
+        <v>55.3</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J10" s="7">
-        <v>0.82489999999999997</v>
+        <v>0.83199999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -842,16 +837,16 @@
         <v>1.1585243931787499</v>
       </c>
       <c r="G11" s="5">
-        <v>14</v>
-      </c>
-      <c r="H11" s="6">
-        <v>86.526399999999995</v>
-      </c>
-      <c r="I11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="11">
+        <v>77.78</v>
+      </c>
+      <c r="I11" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J11" s="7">
-        <v>0.89539999999999997</v>
+        <v>0.88600000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -872,16 +867,16 @@
         <v>0.52676703955005499</v>
       </c>
       <c r="G12" s="5">
-        <v>14</v>
-      </c>
-      <c r="H12" s="6">
-        <v>53.3294</v>
-      </c>
-      <c r="I12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="11">
+        <v>47.813800000000001</v>
+      </c>
+      <c r="I12" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J12" s="7">
-        <v>0.76549999999999996</v>
+        <v>0.75380000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -902,16 +897,16 @@
         <v>-0.61743607972324399</v>
       </c>
       <c r="G13" s="5">
-        <v>14</v>
-      </c>
-      <c r="H13" s="6">
-        <v>106.29770000000001</v>
-      </c>
-      <c r="I13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="11">
+        <v>98.794499999999999</v>
+      </c>
+      <c r="I13" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J13" s="7">
-        <v>0.93240000000000001</v>
+        <v>0.93300000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -932,16 +927,16 @@
         <v>0.59550000000000003</v>
       </c>
       <c r="G14" s="5">
-        <v>14</v>
-      </c>
-      <c r="H14" s="6">
-        <v>50.896500000000003</v>
-      </c>
-      <c r="I14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="11">
+        <v>49.504199999999997</v>
+      </c>
+      <c r="I14" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J14" s="7">
-        <v>0.76990000000000003</v>
+        <v>0.78590000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -962,16 +957,16 @@
         <v>0.30919999999999997</v>
       </c>
       <c r="G15" s="5">
-        <v>14</v>
-      </c>
-      <c r="H15" s="9">
-        <v>107.65</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="H15" s="12">
+        <v>107.3944</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0.2293</v>
       </c>
       <c r="J15" s="7">
-        <v>0.88519999999999999</v>
+        <v>0.89600000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/5_Analysis/OUTPUT/meta/meta.xlsx
+++ b/5_Analysis/OUTPUT/meta/meta.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCB851C-420B-4B84-9084-84A29AD21FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4BA51E-6E26-4783-B469-B40AB81D5E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17595" yWindow="2880" windowWidth="18915" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -544,7 +544,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -721,28 +721,28 @@
         <v>11</v>
       </c>
       <c r="C7" s="10">
-        <v>0.53500000000000003</v>
+        <v>0.54006092083842305</v>
       </c>
       <c r="D7" s="10">
-        <v>0.112552160094673</v>
+        <v>0.111643739557947</v>
       </c>
       <c r="E7" s="10">
-        <v>0.315</v>
+        <v>0.32124321220547702</v>
       </c>
       <c r="F7" s="10">
-        <v>0.75490000000000002</v>
+        <v>0.75887862947136797</v>
       </c>
       <c r="G7" s="5">
         <v>14</v>
       </c>
       <c r="H7" s="11">
-        <v>141.95429999999999</v>
+        <v>142.79329999999999</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J7" s="7">
-        <v>0.9123</v>
+        <v>0.91159999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -751,28 +751,28 @@
         <v>12</v>
       </c>
       <c r="C8" s="10">
-        <v>-0.1249</v>
+        <v>-0.146356506390866</v>
       </c>
       <c r="D8" s="10">
-        <v>9.0499999999999997E-2</v>
+        <v>9.1508328936507594E-2</v>
       </c>
       <c r="E8" s="10">
-        <v>-0.30220000000000002</v>
+        <v>-0.32570953539186498</v>
       </c>
       <c r="F8" s="10">
-        <v>5.2400000000000002E-2</v>
+        <v>3.2996522610133402E-2</v>
       </c>
       <c r="G8" s="5">
         <v>14</v>
       </c>
       <c r="H8" s="11">
-        <v>121.38760000000001</v>
+        <v>122.3006</v>
       </c>
       <c r="I8" s="11">
-        <v>0.1673</v>
+        <v>0.10970000000000001</v>
       </c>
       <c r="J8" s="7">
-        <v>0.88859999999999995</v>
+        <v>0.88949999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -795,16 +795,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="10">
-        <v>-0.60939784900550298</v>
+        <v>-0.58738250779546297</v>
       </c>
       <c r="D10" s="10">
-        <v>9.4328558131910101E-2</v>
+        <v>9.8102886963204794E-2</v>
       </c>
       <c r="E10" s="10">
-        <v>-0.79427842565763995</v>
+        <v>-0.77966063302274802</v>
       </c>
       <c r="F10" s="10">
-        <v>-0.424517272353367</v>
+        <v>-0.39510438256817698</v>
       </c>
       <c r="G10" s="5">
         <v>13</v>
@@ -825,16 +825,16 @@
         <v>9</v>
       </c>
       <c r="C11" s="10">
-        <v>0.84406465413567899</v>
+        <v>0.77780198543877399</v>
       </c>
       <c r="D11" s="10">
-        <v>0.16044159052078999</v>
+        <v>0.15333866896888601</v>
       </c>
       <c r="E11" s="10">
-        <v>0.52960491509260799</v>
+        <v>0.477263716822449</v>
       </c>
       <c r="F11" s="10">
-        <v>1.1585243931787499</v>
+        <v>1.0783402540550999</v>
       </c>
       <c r="G11" s="5">
         <v>13</v>
@@ -855,16 +855,16 @@
         <v>10</v>
       </c>
       <c r="C12" s="10">
-        <v>0.37960495323976101</v>
+        <v>0.352408577876833</v>
       </c>
       <c r="D12" s="10">
-        <v>7.5084076784619203E-2</v>
+        <v>7.39756686439135E-2</v>
       </c>
       <c r="E12" s="10">
-        <v>0.232442866929468</v>
+        <v>0.207418931602494</v>
       </c>
       <c r="F12" s="10">
-        <v>0.52676703955005499</v>
+        <v>0.49739822415117202</v>
       </c>
       <c r="G12" s="5">
         <v>13</v>
@@ -885,16 +885,16 @@
         <v>14</v>
       </c>
       <c r="C13" s="10">
-        <v>-0.98053864394996604</v>
+        <v>-0.92489569798946203</v>
       </c>
       <c r="D13" s="10">
-        <v>0.18525981451232201</v>
+        <v>0.186677405907548</v>
       </c>
       <c r="E13" s="10">
-        <v>-1.34364120817669</v>
+        <v>-1.2907766902956199</v>
       </c>
       <c r="F13" s="10">
-        <v>-0.61743607972324399</v>
+        <v>-0.55901470568330303</v>
       </c>
       <c r="G13" s="5">
         <v>13</v>
@@ -915,28 +915,28 @@
         <v>11</v>
       </c>
       <c r="C14" s="10">
-        <v>0.45229999999999998</v>
+        <v>0.439042639717515</v>
       </c>
       <c r="D14" s="10">
-        <v>7.2999999999999995E-2</v>
+        <v>7.9042794824314103E-2</v>
       </c>
       <c r="E14" s="10">
-        <v>0.30919999999999997</v>
+        <v>0.28412160862447</v>
       </c>
       <c r="F14" s="10">
-        <v>0.59550000000000003</v>
+        <v>0.59396367081055901</v>
       </c>
       <c r="G14" s="5">
         <v>13</v>
       </c>
       <c r="H14" s="11">
-        <v>49.504199999999997</v>
+        <v>50.981099999999998</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J14" s="7">
-        <v>0.78590000000000004</v>
+        <v>0.79330000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -945,28 +945,28 @@
         <v>12</v>
       </c>
       <c r="C15" s="10">
-        <v>0.12089999999999999</v>
+        <v>7.5286225868194695E-2</v>
       </c>
       <c r="D15" s="10">
-        <v>9.6000000000000002E-2</v>
+        <v>8.4055283488117694E-2</v>
       </c>
       <c r="E15" s="10">
-        <v>-6.7299999999999999E-2</v>
+        <v>-8.9459102478820399E-2</v>
       </c>
       <c r="F15" s="10">
-        <v>0.30919999999999997</v>
+        <v>0.24003155421521</v>
       </c>
       <c r="G15" s="5">
         <v>13</v>
       </c>
       <c r="H15" s="12">
-        <v>107.3944</v>
+        <v>70.4803</v>
       </c>
       <c r="I15" s="11">
-        <v>0.2293</v>
+        <v>0.37040000000000001</v>
       </c>
       <c r="J15" s="7">
-        <v>0.89600000000000002</v>
+        <v>0.84440000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/5_Analysis/OUTPUT/meta/meta.xlsx
+++ b/5_Analysis/OUTPUT/meta/meta.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4BA51E-6E26-4783-B469-B40AB81D5E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A6D8E3-3243-4FA8-BA3F-87DC8BF51EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17595" yWindow="2880" windowWidth="18915" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>SE</t>
   </si>
@@ -544,7 +544,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -588,8 +588,6 @@
       <c r="B2" s="6"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
@@ -601,28 +599,28 @@
         <v>8</v>
       </c>
       <c r="C3" s="10">
-        <v>-0.46677903116851299</v>
+        <v>0.59898103370356603</v>
       </c>
       <c r="D3" s="10">
-        <v>8.5048274575298496E-2</v>
+        <v>8.2730212533737205E-2</v>
       </c>
       <c r="E3" s="10">
-        <v>-0.63347058628337205</v>
+        <v>0.43683279670409703</v>
       </c>
       <c r="F3" s="10">
-        <v>-0.30008747605365399</v>
+        <v>0.76112927070303504</v>
       </c>
       <c r="G3" s="5">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="H3" s="11">
-        <v>68.671199999999999</v>
+        <v>350.4</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="7">
-        <v>0.84940000000000004</v>
+        <v>0.92969999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -631,28 +629,28 @@
         <v>9</v>
       </c>
       <c r="C4" s="10">
-        <v>0.72525045814586997</v>
+        <v>0.71470154576913603</v>
       </c>
       <c r="D4" s="10">
-        <v>0.15617715999867099</v>
+        <v>0.12814276652349099</v>
       </c>
       <c r="E4" s="10">
-        <v>0.41914884934072599</v>
+        <v>0.46354633850376897</v>
       </c>
       <c r="F4" s="10">
-        <v>1.0313520669510099</v>
+        <v>0.96585675303450202</v>
       </c>
       <c r="G4" s="5">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="H4" s="11">
-        <v>144.5675</v>
+        <v>438.86</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J4" s="7">
-        <v>0.92869999999999997</v>
+        <v>0.96120000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -661,28 +659,28 @@
         <v>10</v>
       </c>
       <c r="C5" s="10">
-        <v>0.43612068434420898</v>
+        <v>0.47166662674846799</v>
       </c>
       <c r="D5" s="10">
-        <v>7.8763680099058805E-2</v>
+        <v>7.1359822545721305E-2</v>
       </c>
       <c r="E5" s="10">
-        <v>0.28174670806021901</v>
+        <v>0.33180394461568502</v>
       </c>
       <c r="F5" s="10">
-        <v>0.590494660628198</v>
+        <v>0.61152930888125201</v>
       </c>
       <c r="G5" s="5">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="H5" s="11">
-        <v>81.960300000000004</v>
+        <v>290.77999999999997</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="7">
-        <v>0.83020000000000005</v>
+        <v>0.91210000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -691,28 +689,28 @@
         <v>14</v>
       </c>
       <c r="C6" s="10">
-        <v>-0.87824237705746599</v>
+        <v>0.90537168137579804</v>
       </c>
       <c r="D6" s="10">
-        <v>0.193220001612318</v>
+        <v>0.138532516644259</v>
       </c>
       <c r="E6" s="10">
-        <v>-1.2569466213103799</v>
+        <v>0.63385293806535503</v>
       </c>
       <c r="F6" s="10">
-        <v>-0.499538132804551</v>
+        <v>1.1768904246862399</v>
       </c>
       <c r="G6" s="5">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="H6" s="11">
-        <v>128.46719999999999</v>
+        <v>533.29999999999995</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J6" s="7">
-        <v>0.94669999999999999</v>
+        <v>0.96560000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -721,28 +719,28 @@
         <v>11</v>
       </c>
       <c r="C7" s="10">
-        <v>0.54006092083842305</v>
+        <v>0.49802577378202001</v>
       </c>
       <c r="D7" s="10">
-        <v>0.111643739557947</v>
+        <v>6.7425528692736797E-2</v>
       </c>
       <c r="E7" s="10">
-        <v>0.32124321220547702</v>
+        <v>0.365874165905684</v>
       </c>
       <c r="F7" s="10">
-        <v>0.75887862947136797</v>
+        <v>0.63017738165835602</v>
       </c>
       <c r="G7" s="5">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="H7" s="11">
-        <v>142.79329999999999</v>
+        <v>316</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J7" s="7">
-        <v>0.91159999999999997</v>
+        <v>0.90569999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -751,28 +749,28 @@
         <v>12</v>
       </c>
       <c r="C8" s="10">
-        <v>-0.146356506390866</v>
+        <v>-7.3526546740762103E-2</v>
       </c>
       <c r="D8" s="10">
-        <v>9.1508328936507594E-2</v>
+        <v>6.9895346887960702E-2</v>
       </c>
       <c r="E8" s="10">
-        <v>-0.32570953539186498</v>
+        <v>-0.210518909328099</v>
       </c>
       <c r="F8" s="10">
-        <v>3.2996522610133402E-2</v>
+        <v>6.34658158465745E-2</v>
       </c>
       <c r="G8" s="5">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="H8" s="11">
-        <v>122.3006</v>
-      </c>
-      <c r="I8" s="11">
-        <v>0.10970000000000001</v>
+        <v>356.06</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="J8" s="7">
-        <v>0.88949999999999996</v>
+        <v>0.92390000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -782,8 +780,6 @@
       <c r="B9" s="8"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
       <c r="G9" s="5"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -795,28 +791,28 @@
         <v>8</v>
       </c>
       <c r="C10" s="10">
-        <v>-0.58738250779546297</v>
+        <v>0.92086883360917604</v>
       </c>
       <c r="D10" s="10">
-        <v>9.8102886963204794E-2</v>
+        <v>0.105685272710625</v>
       </c>
       <c r="E10" s="10">
-        <v>-0.77966063302274802</v>
+        <v>0.71372950540005597</v>
       </c>
       <c r="F10" s="10">
-        <v>-0.39510438256817698</v>
+        <v>1.1280081618183</v>
       </c>
       <c r="G10" s="5">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="H10" s="11">
-        <v>55.3</v>
+        <v>375.48994571074201</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J10" s="7">
-        <v>0.83199999999999996</v>
+        <v>0.93320000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -825,28 +821,28 @@
         <v>9</v>
       </c>
       <c r="C11" s="10">
-        <v>0.77780198543877399</v>
+        <v>1.41461568855986</v>
       </c>
       <c r="D11" s="10">
-        <v>0.15333866896888601</v>
+        <v>0.229388960400182</v>
       </c>
       <c r="E11" s="10">
-        <v>0.477263716822449</v>
+        <v>0.96502158772441504</v>
       </c>
       <c r="F11" s="10">
-        <v>1.0783402540550999</v>
+        <v>1.8642097893953</v>
       </c>
       <c r="G11" s="5">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="H11" s="11">
-        <v>77.78</v>
+        <v>634.67536434468002</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J11" s="7">
-        <v>0.88600000000000001</v>
+        <v>0.97870000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -855,28 +851,28 @@
         <v>10</v>
       </c>
       <c r="C12" s="10">
-        <v>0.352408577876833</v>
+        <v>0.64599724635690003</v>
       </c>
       <c r="D12" s="10">
-        <v>7.39756686439135E-2</v>
+        <v>9.5899658129783599E-2</v>
       </c>
       <c r="E12" s="10">
-        <v>0.207418931602494</v>
+        <v>0.45803737029281999</v>
       </c>
       <c r="F12" s="10">
-        <v>0.49739822415117202</v>
+        <v>0.83395712242097897</v>
       </c>
       <c r="G12" s="5">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="H12" s="11">
-        <v>47.813800000000001</v>
+        <v>373.01414710349098</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J12" s="7">
-        <v>0.75380000000000003</v>
+        <v>0.93710000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -885,28 +881,28 @@
         <v>14</v>
       </c>
       <c r="C13" s="10">
-        <v>-0.92489569798946203</v>
+        <v>1.6527308841714601</v>
       </c>
       <c r="D13" s="10">
-        <v>0.186677405907548</v>
+        <v>0.24419769444551001</v>
       </c>
       <c r="E13" s="10">
-        <v>-1.2907766902956199</v>
+        <v>1.17411219795054</v>
       </c>
       <c r="F13" s="10">
-        <v>-0.55901470568330303</v>
+        <v>2.1313495703923699</v>
       </c>
       <c r="G13" s="5">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="H13" s="11">
-        <v>98.794499999999999</v>
+        <v>680.19905295440003</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J13" s="7">
-        <v>0.93300000000000005</v>
+        <v>0.98080000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -915,28 +911,28 @@
         <v>11</v>
       </c>
       <c r="C14" s="10">
-        <v>0.439042639717515</v>
+        <v>0.72782964201012601</v>
       </c>
       <c r="D14" s="10">
-        <v>7.9042794824314103E-2</v>
+        <v>9.7366929322544093E-2</v>
       </c>
       <c r="E14" s="10">
-        <v>0.28412160862447</v>
+        <v>0.536993967252683</v>
       </c>
       <c r="F14" s="10">
-        <v>0.59396367081055901</v>
+        <v>0.91866531676756902</v>
       </c>
       <c r="G14" s="5">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="H14" s="11">
-        <v>50.981099999999998</v>
+        <v>378.22612099697801</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J14" s="7">
-        <v>0.79330000000000001</v>
+        <v>0.94040000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -945,28 +941,28 @@
         <v>12</v>
       </c>
       <c r="C15" s="10">
-        <v>7.5286225868194695E-2</v>
+        <v>6.3330951123012097E-2</v>
       </c>
       <c r="D15" s="10">
-        <v>8.4055283488117694E-2</v>
+        <v>0.101094976546566</v>
       </c>
       <c r="E15" s="10">
-        <v>-8.9459102478820399E-2</v>
+        <v>-0.13481156192617899</v>
       </c>
       <c r="F15" s="10">
-        <v>0.24003155421521</v>
+        <v>0.26147346417220402</v>
       </c>
       <c r="G15" s="5">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="H15" s="12">
-        <v>70.4803</v>
-      </c>
-      <c r="I15" s="11">
-        <v>0.37040000000000001</v>
+        <v>482.76381114763001</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="J15" s="7">
-        <v>0.84440000000000004</v>
+        <v>0.95820000000000005</v>
       </c>
     </row>
   </sheetData>
